--- a/suppl_data/SupplData1 - all_genomes.xlsx
+++ b/suppl_data/SupplData1 - all_genomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/My_Drive_2022/Projects_2022/2022/Atkins/Manuscripts/TTA_codon/github/article/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/_my/github/article-tta-codon/suppl_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AD8C79-6555-2F42-AF7D-3DB04C179095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA318840-ACEF-0744-AB3E-6A9CF2D4C7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25420" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25420" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_genomes" sheetId="1" r:id="rId1"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H100" sqref="H2:H100"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1668,7 +1668,7 @@
         <v>335</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H65" si="0">IF(AND(G2&gt;0,G2&lt;&gt;"NULL"),"YES","NO")</f>
+        <f>IF(AND(G2&gt;0,G2&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
         <v>116</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G3&gt;0,G3&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
         <v>87</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G4&gt;0,G4&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
         <v>258</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G5&gt;0,G5&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
         <v>212</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G6&gt;0,G6&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>138</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G7&gt;0,G7&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
         <v>208</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G8&gt;0,G8&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
         <v>181</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G9&gt;0,G9&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G10&gt;0,G10&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
         <v>165</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G11&gt;0,G11&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>281</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G12&gt;0,G12&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
         <v>252</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G13&gt;0,G13&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
         <v>361</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G14&gt;0,G14&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
         <v>274</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G15&gt;0,G15&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
         <v>261</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G16&gt;0,G16&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
         <v>560</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G17&gt;0,G17&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
         <v>154</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G18&gt;0,G18&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>98</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G19&gt;0,G19&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         <v>214</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G20&gt;0,G20&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G21&gt;0,G21&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
         <v>194</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G22&gt;0,G22&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
         <v>215</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G23&gt;0,G23&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>160</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G24&gt;0,G24&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>136</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G25&gt;0,G25&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
         <v>342</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G26&gt;0,G26&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>205</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G27&gt;0,G27&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
         <v>196</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G28&gt;0,G28&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
         <v>299</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G29&gt;0,G29&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G30&gt;0,G30&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
         <v>137</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G31&gt;0,G31&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
         <v>156</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G32&gt;0,G32&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
         <v>144</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G33&gt;0,G33&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
         <v>345</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G34&gt;0,G34&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
         <v>256</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G35&gt;0,G35&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
         <v>94</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G36&gt;0,G36&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
         <v>246</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G37&gt;0,G37&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
         <v>158</v>
       </c>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G38&gt;0,G38&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
         <v>126</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G39&gt;0,G39&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
         <v>608</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G40&gt;0,G40&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
         <v>331</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G41&gt;0,G41&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
         <v>129</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G42&gt;0,G42&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
         <v>196</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G43&gt;0,G43&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
         <v>170</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G44&gt;0,G44&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
         <v>194</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G45&gt;0,G45&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
         <v>173</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G46&gt;0,G46&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
         <v>274</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G47&gt;0,G47&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
         <v>243</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G48&gt;0,G48&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
         <v>123</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G49&gt;0,G49&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
         <v>421</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G50&gt;0,G50&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
         <v>160</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G51&gt;0,G51&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
         <v>317</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G52&gt;0,G52&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
         <v>193</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G53&gt;0,G53&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
         <v>197</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G54&gt;0,G54&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>190</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G55&gt;0,G55&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
         <v>365</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G56&gt;0,G56&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>140</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G57&gt;0,G57&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         <v>165</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G58&gt;0,G58&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
         <v>336</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G59&gt;0,G59&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
         <v>240</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G60&gt;0,G60&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
         <v>136</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G61&gt;0,G61&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
         <v>234</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G62&gt;0,G62&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
         <v>290</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G63&gt;0,G63&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
         <v>220</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G64&gt;0,G64&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
         <v>165</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(G65&gt;0,G65&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>151</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f t="shared" ref="H66:H129" si="1">IF(AND(G66&gt;0,G66&lt;&gt;"NULL"),"YES","NO")</f>
+        <f>IF(AND(G66&gt;0,G66&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
         <v>304</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G67&gt;0,G67&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
         <v>184</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G68&gt;0,G68&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
         <v>76</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G69&gt;0,G69&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
         <v>108</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G70&gt;0,G70&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
         <v>293</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G71&gt;0,G71&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
         <v>125</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G72&gt;0,G72&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
         <v>216</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G73&gt;0,G73&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
         <v>175</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G74&gt;0,G74&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
         <v>243</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G75&gt;0,G75&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
         <v>261</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G76&gt;0,G76&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
         <v>274</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G77&gt;0,G77&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -3720,19 +3720,19 @@
         <v>146</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G78&gt;0,G78&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>5985</v>
+        <v>4218</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -3740,26 +3740,26 @@
       <c r="E79" t="s">
         <v>10</v>
       </c>
-      <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>88</v>
+      <c r="F79">
+        <v>7917</v>
+      </c>
+      <c r="G79">
+        <v>310</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G79&gt;0,G79&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>4218</v>
+        <v>3803</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -3768,25 +3768,25 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>7917</v>
+        <v>5409</v>
       </c>
       <c r="G80">
-        <v>310</v>
+        <v>198</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G80&gt;0,G80&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>3803</v>
+        <v>1818</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -3795,25 +3795,25 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>5409</v>
+        <v>6126</v>
       </c>
       <c r="G81">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G81&gt;0,G81&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>1818</v>
+        <v>3840</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -3822,25 +3822,25 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>6126</v>
+        <v>4682</v>
       </c>
       <c r="G82">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G82&gt;0,G82&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>3840</v>
+        <v>2294</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -3849,25 +3849,25 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>4682</v>
+        <v>5634</v>
       </c>
       <c r="G83">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G83&gt;0,G83&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>2294</v>
+        <v>4638</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -3876,25 +3876,25 @@
         <v>10</v>
       </c>
       <c r="F84">
-        <v>5634</v>
+        <v>5487</v>
       </c>
       <c r="G84">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G84&gt;0,G84&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>4638</v>
+        <v>4485</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -3903,25 +3903,25 @@
         <v>10</v>
       </c>
       <c r="F85">
-        <v>5487</v>
+        <v>7019</v>
       </c>
       <c r="G85">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G85&gt;0,G85&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>4485</v>
+        <v>1356</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -3930,25 +3930,25 @@
         <v>10</v>
       </c>
       <c r="F86">
-        <v>7019</v>
+        <v>6781</v>
       </c>
       <c r="G86">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G86&gt;0,G86&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>1356</v>
+        <v>1535</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -3957,25 +3957,25 @@
         <v>10</v>
       </c>
       <c r="F87">
-        <v>6781</v>
+        <v>9776</v>
       </c>
       <c r="G87">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G87&gt;0,G87&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>1535</v>
+        <v>4369</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -3984,25 +3984,25 @@
         <v>10</v>
       </c>
       <c r="F88">
-        <v>9776</v>
+        <v>7461</v>
       </c>
       <c r="G88">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G88&gt;0,G88&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>4369</v>
+        <v>2766</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -4011,25 +4011,25 @@
         <v>10</v>
       </c>
       <c r="F89">
-        <v>7461</v>
+        <v>7321</v>
       </c>
       <c r="G89">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G89&gt;0,G89&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>2766</v>
+        <v>3718</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -4038,25 +4038,25 @@
         <v>10</v>
       </c>
       <c r="F90">
-        <v>7321</v>
+        <v>8119</v>
       </c>
       <c r="G90">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G90&gt;0,G90&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>3718</v>
+        <v>3141</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -4065,25 +4065,25 @@
         <v>10</v>
       </c>
       <c r="F91">
-        <v>8119</v>
+        <v>8250</v>
       </c>
       <c r="G91">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G91&gt;0,G91&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>3141</v>
+        <v>2756</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -4092,25 +4092,25 @@
         <v>10</v>
       </c>
       <c r="F92">
-        <v>8250</v>
+        <v>7000</v>
       </c>
       <c r="G92">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G92&gt;0,G92&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>2756</v>
+        <v>2776</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -4119,25 +4119,25 @@
         <v>10</v>
       </c>
       <c r="F93">
-        <v>7000</v>
+        <v>7542</v>
       </c>
       <c r="G93">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G93&gt;0,G93&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>2776</v>
+        <v>689</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -4146,25 +4146,25 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>7542</v>
+        <v>7811</v>
       </c>
       <c r="G94">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G94&gt;0,G94&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>689</v>
+        <v>1808</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -4173,25 +4173,25 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>7811</v>
+        <v>5512</v>
       </c>
       <c r="G95">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G95&gt;0,G95&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>1808</v>
+        <v>4931</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -4200,25 +4200,25 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <v>5512</v>
+        <v>7205</v>
       </c>
       <c r="G96">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G96&gt;0,G96&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>4931</v>
+        <v>3306</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
         <v>9</v>
@@ -4227,25 +4227,25 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>7205</v>
+        <v>5373</v>
       </c>
       <c r="G97">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G97&gt;0,G97&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>3306</v>
+        <v>2750</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -4254,25 +4254,25 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <v>5373</v>
+        <v>10255</v>
       </c>
       <c r="G98">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G98&gt;0,G98&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>2750</v>
+        <v>1081</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -4281,52 +4281,52 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <v>10255</v>
+        <v>7635</v>
       </c>
       <c r="G99">
-        <v>423</v>
+        <v>156</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G99&gt;0,G99&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B100">
-        <v>1081</v>
+        <v>5938</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="F100">
-        <v>7635</v>
+        <v>73</v>
       </c>
       <c r="G100">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G100&gt;0,G100&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>5938</v>
+        <v>5940</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D101" t="s">
         <v>111</v>
@@ -4335,25 +4335,25 @@
         <v>112</v>
       </c>
       <c r="F101">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G101&gt;0,G101&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B102">
-        <v>5944</v>
+        <v>5974</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D102" t="s">
         <v>111</v>
@@ -4361,26 +4361,26 @@
       <c r="E102" t="s">
         <v>112</v>
       </c>
-      <c r="F102" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" t="s">
-        <v>88</v>
+      <c r="F102">
+        <v>89</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G102&gt;0,G102&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B103">
-        <v>5753</v>
+        <v>5908</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
         <v>111</v>
@@ -4389,52 +4389,52 @@
         <v>112</v>
       </c>
       <c r="F103">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G103&gt;0,G103&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B104">
-        <v>5868</v>
+        <v>5954</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E104" t="s">
         <v>112</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G104&gt;0,G104&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B105">
-        <v>5940</v>
+        <v>5806</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D105" t="s">
         <v>111</v>
@@ -4443,25 +4443,25 @@
         <v>112</v>
       </c>
       <c r="F105">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G105&gt;0,G105&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B106">
-        <v>5974</v>
+        <v>5795</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D106" t="s">
         <v>111</v>
@@ -4470,25 +4470,25 @@
         <v>112</v>
       </c>
       <c r="F106">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G106&gt;0,G106&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B107">
-        <v>5908</v>
+        <v>5892</v>
       </c>
       <c r="C107" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D107" t="s">
         <v>111</v>
@@ -4497,25 +4497,25 @@
         <v>112</v>
       </c>
       <c r="F107">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G107&gt;0,G107&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B108">
-        <v>5933</v>
+        <v>5744</v>
       </c>
       <c r="C108" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
         <v>111</v>
@@ -4524,25 +4524,25 @@
         <v>112</v>
       </c>
       <c r="F108">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G108&gt;0,G108&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B109">
-        <v>5838</v>
+        <v>5888</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
         <v>111</v>
@@ -4551,25 +4551,25 @@
         <v>112</v>
       </c>
       <c r="F109">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G109&gt;0,G109&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>5954</v>
+        <v>5880</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
         <v>111</v>
@@ -4578,25 +4578,25 @@
         <v>112</v>
       </c>
       <c r="F110">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G110">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G110&gt;0,G110&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>5840</v>
+        <v>5948</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D111" t="s">
         <v>111</v>
@@ -4605,25 +4605,25 @@
         <v>112</v>
       </c>
       <c r="F111">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G111&gt;0,G111&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B112">
-        <v>5806</v>
+        <v>5949</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D112" t="s">
         <v>111</v>
@@ -4632,25 +4632,25 @@
         <v>112</v>
       </c>
       <c r="F112">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G112&gt;0,G112&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B113">
-        <v>5945</v>
+        <v>5821</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D113" t="s">
         <v>111</v>
@@ -4659,25 +4659,25 @@
         <v>112</v>
       </c>
       <c r="F113">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G113&gt;0,G113&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B114">
-        <v>5967</v>
+        <v>5955</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D114" t="s">
         <v>111</v>
@@ -4686,25 +4686,25 @@
         <v>112</v>
       </c>
       <c r="F114">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G114&gt;0,G114&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B115">
-        <v>5739</v>
+        <v>5859</v>
       </c>
       <c r="C115" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D115" t="s">
         <v>111</v>
@@ -4713,25 +4713,25 @@
         <v>112</v>
       </c>
       <c r="F115">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G115&gt;0,G115&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B116">
-        <v>5795</v>
+        <v>5798</v>
       </c>
       <c r="C116" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D116" t="s">
         <v>111</v>
@@ -4740,25 +4740,25 @@
         <v>112</v>
       </c>
       <c r="F116">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H116" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G116&gt;0,G116&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B117">
-        <v>5892</v>
+        <v>5847</v>
       </c>
       <c r="C117" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
         <v>111</v>
@@ -4767,25 +4767,25 @@
         <v>112</v>
       </c>
       <c r="F117">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G117">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G117&gt;0,G117&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B118">
-        <v>5774</v>
+        <v>5810</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D118" t="s">
         <v>111</v>
@@ -4794,25 +4794,25 @@
         <v>112</v>
       </c>
       <c r="F118">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G118&gt;0,G118&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B119">
-        <v>5744</v>
+        <v>5824</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
         <v>111</v>
@@ -4821,25 +4821,25 @@
         <v>112</v>
       </c>
       <c r="F119">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G119&gt;0,G119&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B120">
-        <v>5888</v>
+        <v>5734</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D120" t="s">
         <v>111</v>
@@ -4848,25 +4848,25 @@
         <v>112</v>
       </c>
       <c r="F120">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H120" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G120&gt;0,G120&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B121">
-        <v>5880</v>
+        <v>5922</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D121" t="s">
         <v>111</v>
@@ -4875,25 +4875,25 @@
         <v>112</v>
       </c>
       <c r="F121">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H121" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G121&gt;0,G121&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B122">
-        <v>5948</v>
+        <v>5745</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D122" t="s">
         <v>111</v>
@@ -4902,25 +4902,25 @@
         <v>112</v>
       </c>
       <c r="F122">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="G122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H122" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G122&gt;0,G122&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B123">
-        <v>5949</v>
+        <v>5970</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D123" t="s">
         <v>111</v>
@@ -4929,25 +4929,25 @@
         <v>112</v>
       </c>
       <c r="F123">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G123&gt;0,G123&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B124">
-        <v>5737</v>
+        <v>5909</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D124" t="s">
         <v>111</v>
@@ -4956,25 +4956,25 @@
         <v>112</v>
       </c>
       <c r="F124">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
+        <f>IF(AND(G124&gt;0,G124&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B125">
-        <v>5821</v>
+        <v>5746</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D125" t="s">
         <v>111</v>
@@ -4983,25 +4983,25 @@
         <v>112</v>
       </c>
       <c r="F125">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="G125">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H125" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G125&gt;0,G125&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B126">
-        <v>5955</v>
+        <v>5833</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
         <v>111</v>
@@ -5010,25 +5010,25 @@
         <v>112</v>
       </c>
       <c r="F126">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H126" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G126&gt;0,G126&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B127">
-        <v>5859</v>
+        <v>5813</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D127" t="s">
         <v>111</v>
@@ -5037,25 +5037,25 @@
         <v>112</v>
       </c>
       <c r="F127">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H127" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G127&gt;0,G127&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B128">
-        <v>5798</v>
+        <v>5857</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D128" t="s">
         <v>111</v>
@@ -5064,25 +5064,25 @@
         <v>112</v>
       </c>
       <c r="F128">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="G128">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H128" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G128&gt;0,G128&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B129">
-        <v>5847</v>
+        <v>5961</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D129" t="s">
         <v>111</v>
@@ -5091,52 +5091,52 @@
         <v>112</v>
       </c>
       <c r="F129">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G129">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H129" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(G129&gt;0,G129&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B130">
-        <v>5810</v>
+        <v>5869</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D130" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E130" t="s">
         <v>112</v>
       </c>
       <c r="F130">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H130" s="1" t="str">
-        <f t="shared" ref="H130:H193" si="2">IF(AND(G130&gt;0,G130&lt;&gt;"NULL"),"YES","NO")</f>
+        <f>IF(AND(G130&gt;0,G130&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B131">
-        <v>5799</v>
+        <v>5729</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D131" t="s">
         <v>111</v>
@@ -5145,25 +5145,25 @@
         <v>112</v>
       </c>
       <c r="F131">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H131" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G131&gt;0,G131&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B132">
-        <v>5824</v>
+        <v>5780</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D132" t="s">
         <v>111</v>
@@ -5172,25 +5172,25 @@
         <v>112</v>
       </c>
       <c r="F132">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G132&gt;0,G132&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B133">
-        <v>5734</v>
+        <v>5893</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D133" t="s">
         <v>111</v>
@@ -5199,25 +5199,25 @@
         <v>112</v>
       </c>
       <c r="F133">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G133&gt;0,G133&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B134">
-        <v>5922</v>
+        <v>5918</v>
       </c>
       <c r="C134" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D134" t="s">
         <v>111</v>
@@ -5226,25 +5226,25 @@
         <v>112</v>
       </c>
       <c r="F134">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H134" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G134&gt;0,G134&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B135">
-        <v>5745</v>
+        <v>5964</v>
       </c>
       <c r="C135" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
         <v>111</v>
@@ -5253,25 +5253,25 @@
         <v>112</v>
       </c>
       <c r="F135">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G135&gt;0,G135&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B136">
-        <v>5970</v>
+        <v>5747</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D136" t="s">
         <v>111</v>
@@ -5280,25 +5280,25 @@
         <v>112</v>
       </c>
       <c r="F136">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
       <c r="H136" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G136&gt;0,G136&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B137">
-        <v>5909</v>
+        <v>5846</v>
       </c>
       <c r="C137" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D137" t="s">
         <v>111</v>
@@ -5307,25 +5307,25 @@
         <v>112</v>
       </c>
       <c r="F137">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H137" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G137&gt;0,G137&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B138">
-        <v>5746</v>
+        <v>5934</v>
       </c>
       <c r="C138" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D138" t="s">
         <v>111</v>
@@ -5334,25 +5334,25 @@
         <v>112</v>
       </c>
       <c r="F138">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G138&gt;0,G138&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B139">
-        <v>5972</v>
+        <v>5889</v>
       </c>
       <c r="C139" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D139" t="s">
         <v>111</v>
@@ -5361,25 +5361,25 @@
         <v>112</v>
       </c>
       <c r="F139">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G139&gt;0,G139&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B140">
-        <v>5833</v>
+        <v>5772</v>
       </c>
       <c r="C140" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D140" t="s">
         <v>111</v>
@@ -5388,25 +5388,25 @@
         <v>112</v>
       </c>
       <c r="F140">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G140&gt;0,G140&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B141">
-        <v>5733</v>
+        <v>5811</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
         <v>111</v>
@@ -5415,25 +5415,25 @@
         <v>112</v>
       </c>
       <c r="F141">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G141&gt;0,G141&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B142">
-        <v>5813</v>
+        <v>5977</v>
       </c>
       <c r="C142" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D142" t="s">
         <v>111</v>
@@ -5442,25 +5442,25 @@
         <v>112</v>
       </c>
       <c r="F142">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H142" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G142&gt;0,G142&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B143">
-        <v>5857</v>
+        <v>5978</v>
       </c>
       <c r="C143" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
         <v>111</v>
@@ -5469,25 +5469,25 @@
         <v>112</v>
       </c>
       <c r="F143">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G143&gt;0,G143&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B144">
-        <v>5961</v>
+        <v>5828</v>
       </c>
       <c r="C144" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D144" t="s">
         <v>111</v>
@@ -5496,52 +5496,52 @@
         <v>112</v>
       </c>
       <c r="F144">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H144" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G144&gt;0,G144&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B145">
-        <v>5869</v>
+        <v>5748</v>
       </c>
       <c r="C145" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D145" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E145" t="s">
         <v>112</v>
       </c>
       <c r="F145">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="G145">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H145" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G145&gt;0,G145&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B146">
-        <v>5729</v>
+        <v>5823</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D146" t="s">
         <v>111</v>
@@ -5550,25 +5550,25 @@
         <v>112</v>
       </c>
       <c r="F146">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="G146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H146" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G146&gt;0,G146&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B147">
-        <v>5780</v>
+        <v>5843</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D147" t="s">
         <v>111</v>
@@ -5577,25 +5577,25 @@
         <v>112</v>
       </c>
       <c r="F147">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G147&gt;0,G147&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B148">
-        <v>5893</v>
+        <v>5872</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="D148" t="s">
         <v>111</v>
@@ -5604,25 +5604,25 @@
         <v>112</v>
       </c>
       <c r="F148">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G148&gt;0,G148&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B149">
-        <v>5862</v>
+        <v>5853</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="D149" t="s">
         <v>111</v>
@@ -5631,25 +5631,25 @@
         <v>112</v>
       </c>
       <c r="F149">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G149&gt;0,G149&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B150">
-        <v>5918</v>
+        <v>5951</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D150" t="s">
         <v>111</v>
@@ -5658,25 +5658,25 @@
         <v>112</v>
       </c>
       <c r="F150">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G150&gt;0,G150&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B151">
-        <v>5964</v>
+        <v>5861</v>
       </c>
       <c r="C151" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="D151" t="s">
         <v>111</v>
@@ -5685,25 +5685,25 @@
         <v>112</v>
       </c>
       <c r="F151">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G151&gt;0,G151&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B152">
-        <v>5747</v>
+        <v>5797</v>
       </c>
       <c r="C152" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D152" t="s">
         <v>111</v>
@@ -5712,25 +5712,25 @@
         <v>112</v>
       </c>
       <c r="F152">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H152" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G152&gt;0,G152&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B153">
-        <v>5846</v>
+        <v>5829</v>
       </c>
       <c r="C153" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="D153" t="s">
         <v>111</v>
@@ -5739,25 +5739,25 @@
         <v>112</v>
       </c>
       <c r="F153">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H153" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G153&gt;0,G153&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B154">
-        <v>5934</v>
+        <v>5839</v>
       </c>
       <c r="C154" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="D154" t="s">
         <v>111</v>
@@ -5766,25 +5766,25 @@
         <v>112</v>
       </c>
       <c r="F154">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H154" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G154&gt;0,G154&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B155">
-        <v>5935</v>
+        <v>5966</v>
       </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="D155" t="s">
         <v>111</v>
@@ -5793,25 +5793,25 @@
         <v>112</v>
       </c>
       <c r="F155">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H155" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G155&gt;0,G155&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B156">
-        <v>5932</v>
+        <v>5830</v>
       </c>
       <c r="C156" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="D156" t="s">
         <v>111</v>
@@ -5820,25 +5820,25 @@
         <v>112</v>
       </c>
       <c r="F156">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G156&gt;0,G156&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B157">
-        <v>5865</v>
+        <v>5952</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="D157" t="s">
         <v>111</v>
@@ -5847,25 +5847,25 @@
         <v>112</v>
       </c>
       <c r="F157">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G157&gt;0,G157&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B158">
-        <v>5822</v>
+        <v>5735</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="D158" t="s">
         <v>111</v>
@@ -5874,25 +5874,25 @@
         <v>112</v>
       </c>
       <c r="F158">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G158&gt;0,G158&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B159">
-        <v>5889</v>
+        <v>5890</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D159" t="s">
         <v>111</v>
@@ -5904,22 +5904,22 @@
         <v>73</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G159&gt;0,G159&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B160">
-        <v>5772</v>
+        <v>5965</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="D160" t="s">
         <v>111</v>
@@ -5928,25 +5928,25 @@
         <v>112</v>
       </c>
       <c r="F160">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G160&gt;0,G160&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B161">
-        <v>5811</v>
+        <v>5727</v>
       </c>
       <c r="C161" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D161" t="s">
         <v>111</v>
@@ -5955,25 +5955,25 @@
         <v>112</v>
       </c>
       <c r="F161">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="H161" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G161&gt;0,G161&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B162">
-        <v>5884</v>
+        <v>5939</v>
       </c>
       <c r="C162" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D162" t="s">
         <v>111</v>
@@ -5982,25 +5982,25 @@
         <v>112</v>
       </c>
       <c r="F162">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G162&gt;0,G162&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B163">
-        <v>5867</v>
+        <v>5764</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="D163" t="s">
         <v>111</v>
@@ -6009,25 +6009,25 @@
         <v>112</v>
       </c>
       <c r="F163">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H163" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G163&gt;0,G163&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B164">
-        <v>5977</v>
+        <v>5803</v>
       </c>
       <c r="C164" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="D164" t="s">
         <v>111</v>
@@ -6036,25 +6036,25 @@
         <v>112</v>
       </c>
       <c r="F164">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G164">
         <v>1</v>
       </c>
       <c r="H164" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G164&gt;0,G164&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B165">
-        <v>5978</v>
+        <v>5844</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="D165" t="s">
         <v>111</v>
@@ -6063,25 +6063,25 @@
         <v>112</v>
       </c>
       <c r="F165">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H165" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G165&gt;0,G165&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B166">
-        <v>5828</v>
+        <v>5887</v>
       </c>
       <c r="C166" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D166" t="s">
         <v>111</v>
@@ -6090,25 +6090,25 @@
         <v>112</v>
       </c>
       <c r="F166">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G166">
         <v>1</v>
       </c>
       <c r="H166" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G166&gt;0,G166&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B167">
-        <v>5748</v>
+        <v>5805</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="D167" t="s">
         <v>111</v>
@@ -6117,25 +6117,25 @@
         <v>112</v>
       </c>
       <c r="F167">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G167&gt;0,G167&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B168">
-        <v>5793</v>
+        <v>5905</v>
       </c>
       <c r="C168" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="D168" t="s">
         <v>111</v>
@@ -6143,26 +6143,26 @@
       <c r="E168" t="s">
         <v>112</v>
       </c>
-      <c r="F168" t="s">
-        <v>88</v>
-      </c>
-      <c r="G168" t="s">
-        <v>88</v>
+      <c r="F168">
+        <v>75</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
       </c>
       <c r="H168" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G168&gt;0,G168&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B169">
-        <v>5823</v>
+        <v>5749</v>
       </c>
       <c r="C169" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="D169" t="s">
         <v>111</v>
@@ -6171,25 +6171,25 @@
         <v>112</v>
       </c>
       <c r="F169">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H169" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G169&gt;0,G169&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B170">
-        <v>5843</v>
+        <v>5914</v>
       </c>
       <c r="C170" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="D170" t="s">
         <v>111</v>
@@ -6198,25 +6198,25 @@
         <v>112</v>
       </c>
       <c r="F170">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H170" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G170&gt;0,G170&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B171">
-        <v>5872</v>
+        <v>5832</v>
       </c>
       <c r="C171" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="D171" t="s">
         <v>111</v>
@@ -6225,25 +6225,25 @@
         <v>112</v>
       </c>
       <c r="F171">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G171&gt;0,G171&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B172">
-        <v>5853</v>
+        <v>5921</v>
       </c>
       <c r="C172" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="D172" t="s">
         <v>111</v>
@@ -6252,25 +6252,25 @@
         <v>112</v>
       </c>
       <c r="F172">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G172&gt;0,G172&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B173">
-        <v>5951</v>
+        <v>5975</v>
       </c>
       <c r="C173" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="D173" t="s">
         <v>111</v>
@@ -6279,52 +6279,52 @@
         <v>112</v>
       </c>
       <c r="F173">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G173&gt;0,G173&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B174">
-        <v>5814</v>
+        <v>5959</v>
       </c>
       <c r="C174" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="D174" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="E174" t="s">
         <v>112</v>
       </c>
-      <c r="F174" t="s">
-        <v>88</v>
-      </c>
-      <c r="G174" t="s">
-        <v>88</v>
+      <c r="F174">
+        <v>241</v>
+      </c>
+      <c r="G174">
+        <v>11</v>
       </c>
       <c r="H174" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G174&gt;0,G174&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B175">
-        <v>5852</v>
+        <v>5870</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="D175" t="s">
         <v>111</v>
@@ -6333,25 +6333,25 @@
         <v>112</v>
       </c>
       <c r="F175">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G175&gt;0,G175&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B176">
-        <v>5861</v>
+        <v>5788</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D176" t="s">
         <v>111</v>
@@ -6360,25 +6360,25 @@
         <v>112</v>
       </c>
       <c r="F176">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H176" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G176&gt;0,G176&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B177">
-        <v>5797</v>
+        <v>5910</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="D177" t="s">
         <v>111</v>
@@ -6387,25 +6387,25 @@
         <v>112</v>
       </c>
       <c r="F177">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="G177">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H177" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G177&gt;0,G177&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B178">
-        <v>5829</v>
+        <v>5826</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="D178" t="s">
         <v>111</v>
@@ -6414,52 +6414,52 @@
         <v>112</v>
       </c>
       <c r="F178">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G178">
         <v>1</v>
       </c>
       <c r="H178" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G178&gt;0,G178&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
+        <v>124</v>
+      </c>
+      <c r="B179">
+        <v>5785</v>
+      </c>
+      <c r="C179" t="s">
+        <v>237</v>
+      </c>
+      <c r="D179" t="s">
+        <v>111</v>
+      </c>
+      <c r="E179" t="s">
+        <v>112</v>
+      </c>
+      <c r="F179">
         <v>79</v>
       </c>
-      <c r="B179">
-        <v>5792</v>
-      </c>
-      <c r="C179" t="s">
-        <v>192</v>
-      </c>
-      <c r="D179" t="s">
-        <v>111</v>
-      </c>
-      <c r="E179" t="s">
-        <v>112</v>
-      </c>
-      <c r="F179">
-        <v>105</v>
-      </c>
       <c r="G179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H179" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G179&gt;0,G179&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B180">
-        <v>5839</v>
+        <v>5902</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="D180" t="s">
         <v>111</v>
@@ -6468,25 +6468,25 @@
         <v>112</v>
       </c>
       <c r="F180">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="G180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H180" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G180&gt;0,G180&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B181">
-        <v>5966</v>
+        <v>5873</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="D181" t="s">
         <v>111</v>
@@ -6498,22 +6498,22 @@
         <v>231</v>
       </c>
       <c r="G181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H181" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G181&gt;0,G181&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B182">
-        <v>5830</v>
+        <v>5848</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D182" t="s">
         <v>111</v>
@@ -6522,25 +6522,25 @@
         <v>112</v>
       </c>
       <c r="F182">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H182" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G182&gt;0,G182&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B183">
-        <v>5952</v>
+        <v>5919</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="D183" t="s">
         <v>111</v>
@@ -6549,25 +6549,25 @@
         <v>112</v>
       </c>
       <c r="F183">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
       <c r="H183" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G183&gt;0,G183&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B184">
-        <v>5735</v>
+        <v>5958</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="D184" t="s">
         <v>111</v>
@@ -6576,52 +6576,52 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H184" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G184&gt;0,G184&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
+        <v>131</v>
+      </c>
+      <c r="B185">
+        <v>5809</v>
+      </c>
+      <c r="C185" t="s">
+        <v>244</v>
+      </c>
+      <c r="D185" t="s">
+        <v>111</v>
+      </c>
+      <c r="E185" t="s">
+        <v>112</v>
+      </c>
+      <c r="F185">
         <v>85</v>
       </c>
-      <c r="B185">
-        <v>5784</v>
-      </c>
-      <c r="C185" t="s">
-        <v>198</v>
-      </c>
-      <c r="D185" t="s">
-        <v>111</v>
-      </c>
-      <c r="E185" t="s">
-        <v>112</v>
-      </c>
-      <c r="F185">
-        <v>81</v>
-      </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G185&gt;0,G185&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="B186">
-        <v>5960</v>
+        <v>5771</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="D186" t="s">
         <v>111</v>
@@ -6630,25 +6630,25 @@
         <v>112</v>
       </c>
       <c r="F186">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H186" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G186&gt;0,G186&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B187">
-        <v>5754</v>
+        <v>5874</v>
       </c>
       <c r="C187" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="D187" t="s">
         <v>111</v>
@@ -6657,25 +6657,25 @@
         <v>112</v>
       </c>
       <c r="F187">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G187&gt;0,G187&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B188">
-        <v>5816</v>
+        <v>5891</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="D188" t="s">
         <v>111</v>
@@ -6683,26 +6683,26 @@
       <c r="E188" t="s">
         <v>112</v>
       </c>
-      <c r="F188" t="s">
-        <v>88</v>
-      </c>
-      <c r="G188" t="s">
-        <v>88</v>
+      <c r="F188">
+        <v>233</v>
+      </c>
+      <c r="G188">
+        <v>7</v>
       </c>
       <c r="H188" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G188&gt;0,G188&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B189">
-        <v>5776</v>
+        <v>5835</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="D189" t="s">
         <v>111</v>
@@ -6711,25 +6711,25 @@
         <v>112</v>
       </c>
       <c r="F189">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G189&gt;0,G189&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="B190">
-        <v>5890</v>
+        <v>5927</v>
       </c>
       <c r="C190" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D190" t="s">
         <v>111</v>
@@ -6738,25 +6738,25 @@
         <v>112</v>
       </c>
       <c r="F190">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="G190">
         <v>2</v>
       </c>
       <c r="H190" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G190&gt;0,G190&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="B191">
-        <v>5965</v>
+        <v>5885</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="D191" t="s">
         <v>111</v>
@@ -6765,25 +6765,25 @@
         <v>112</v>
       </c>
       <c r="F191">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H191" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G191&gt;0,G191&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="B192">
-        <v>5727</v>
+        <v>5818</v>
       </c>
       <c r="C192" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="D192" t="s">
         <v>111</v>
@@ -6792,25 +6792,25 @@
         <v>112</v>
       </c>
       <c r="F192">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
       <c r="H192" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(G192&gt;0,G192&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B193">
-        <v>5763</v>
+        <v>5856</v>
       </c>
       <c r="C193" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="D193" t="s">
         <v>111</v>
@@ -6818,26 +6818,26 @@
       <c r="E193" t="s">
         <v>112</v>
       </c>
-      <c r="F193" t="s">
-        <v>88</v>
-      </c>
-      <c r="G193" t="s">
-        <v>88</v>
+      <c r="F193">
+        <v>234</v>
+      </c>
+      <c r="G193">
+        <v>5</v>
       </c>
       <c r="H193" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f>IF(AND(G193&gt;0,G193&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B194">
-        <v>5939</v>
+        <v>5738</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="D194" t="s">
         <v>111</v>
@@ -6846,25 +6846,25 @@
         <v>112</v>
       </c>
       <c r="F194">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H194" s="1" t="str">
-        <f t="shared" ref="H194:H257" si="3">IF(AND(G194&gt;0,G194&lt;&gt;"NULL"),"YES","NO")</f>
+        <f>IF(AND(G194&gt;0,G194&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B195">
-        <v>5764</v>
+        <v>5877</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="D195" t="s">
         <v>111</v>
@@ -6873,25 +6873,25 @@
         <v>112</v>
       </c>
       <c r="F195">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="G195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H195" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G195&gt;0,G195&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B196">
-        <v>5803</v>
+        <v>5855</v>
       </c>
       <c r="C196" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="D196" t="s">
         <v>111</v>
@@ -6900,25 +6900,25 @@
         <v>112</v>
       </c>
       <c r="F196">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H196" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G196&gt;0,G196&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="B197">
-        <v>5844</v>
+        <v>5770</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="D197" t="s">
         <v>111</v>
@@ -6927,25 +6927,25 @@
         <v>112</v>
       </c>
       <c r="F197">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="G197">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H197" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G197&gt;0,G197&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="B198">
-        <v>5923</v>
+        <v>5804</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="D198" t="s">
         <v>111</v>
@@ -6954,25 +6954,25 @@
         <v>112</v>
       </c>
       <c r="F198">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G198&gt;0,G198&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B199">
-        <v>5863</v>
+        <v>5915</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="D199" t="s">
         <v>111</v>
@@ -6981,25 +6981,25 @@
         <v>112</v>
       </c>
       <c r="F199">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G199&gt;0,G199&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B200">
-        <v>5943</v>
+        <v>5807</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="D200" t="s">
         <v>111</v>
@@ -7008,25 +7008,25 @@
         <v>112</v>
       </c>
       <c r="F200">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G200&gt;0,G200&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B201">
-        <v>5887</v>
+        <v>5800</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D201" t="s">
         <v>111</v>
@@ -7035,25 +7035,25 @@
         <v>112</v>
       </c>
       <c r="F201">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G201">
         <v>1</v>
       </c>
       <c r="H201" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G201&gt;0,G201&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B202">
-        <v>5805</v>
+        <v>5928</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="D202" t="s">
         <v>111</v>
@@ -7062,25 +7062,25 @@
         <v>112</v>
       </c>
       <c r="F202">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G202&gt;0,G202&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="B203">
-        <v>5841</v>
+        <v>5750</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="D203" t="s">
         <v>111</v>
@@ -7089,25 +7089,25 @@
         <v>112</v>
       </c>
       <c r="F203">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G203&gt;0,G203&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B204">
-        <v>5976</v>
+        <v>5736</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="D204" t="s">
         <v>111</v>
@@ -7116,25 +7116,25 @@
         <v>112</v>
       </c>
       <c r="F204">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G204&gt;0,G204&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="B205">
-        <v>5858</v>
+        <v>5751</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="D205" t="s">
         <v>111</v>
@@ -7143,25 +7143,25 @@
         <v>112</v>
       </c>
       <c r="F205">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G205&gt;0,G205&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B206">
-        <v>5905</v>
+        <v>5759</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="D206" t="s">
         <v>111</v>
@@ -7176,19 +7176,19 @@
         <v>1</v>
       </c>
       <c r="H206" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G206&gt;0,G206&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="B207">
-        <v>5777</v>
+        <v>5950</v>
       </c>
       <c r="C207" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="D207" t="s">
         <v>111</v>
@@ -7197,25 +7197,25 @@
         <v>112</v>
       </c>
       <c r="F207">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G207&gt;0,G207&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B208">
-        <v>5969</v>
+        <v>5929</v>
       </c>
       <c r="C208" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="D208" t="s">
         <v>111</v>
@@ -7224,25 +7224,25 @@
         <v>112</v>
       </c>
       <c r="F208">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H208" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G208&gt;0,G208&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B209">
-        <v>5749</v>
+        <v>5930</v>
       </c>
       <c r="C209" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="D209" t="s">
         <v>111</v>
@@ -7251,25 +7251,25 @@
         <v>112</v>
       </c>
       <c r="F209">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H209" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G209&gt;0,G209&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B210">
-        <v>5914</v>
+        <v>5851</v>
       </c>
       <c r="C210" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="D210" t="s">
         <v>111</v>
@@ -7278,25 +7278,25 @@
         <v>112</v>
       </c>
       <c r="F210">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="G210">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H210" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G210&gt;0,G210&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B211">
-        <v>5832</v>
+        <v>5917</v>
       </c>
       <c r="C211" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="D211" t="s">
         <v>111</v>
@@ -7305,25 +7305,25 @@
         <v>112</v>
       </c>
       <c r="F211">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G211">
         <v>1</v>
       </c>
       <c r="H211" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G211&gt;0,G211&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="B212">
-        <v>5921</v>
+        <v>5984</v>
       </c>
       <c r="C212" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D212" t="s">
         <v>111</v>
@@ -7332,25 +7332,25 @@
         <v>112</v>
       </c>
       <c r="F212">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G212">
         <v>2</v>
       </c>
       <c r="H212" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G212&gt;0,G212&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B213">
-        <v>5787</v>
+        <v>5925</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D213" t="s">
         <v>111</v>
@@ -7359,25 +7359,25 @@
         <v>112</v>
       </c>
       <c r="F213">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H213" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G213&gt;0,G213&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="B214">
-        <v>5975</v>
+        <v>5900</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="D214" t="s">
         <v>111</v>
@@ -7386,25 +7386,25 @@
         <v>112</v>
       </c>
       <c r="F214">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G214&gt;0,G214&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="B215">
-        <v>5834</v>
+        <v>5767</v>
       </c>
       <c r="C215" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="D215" t="s">
         <v>111</v>
@@ -7413,25 +7413,25 @@
         <v>112</v>
       </c>
       <c r="F215">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H215" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G215&gt;0,G215&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B216">
-        <v>5959</v>
+        <v>5926</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="D216" t="s">
         <v>111</v>
@@ -7440,25 +7440,25 @@
         <v>112</v>
       </c>
       <c r="F216">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="G216">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H216" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G216&gt;0,G216&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="B217">
-        <v>5870</v>
+        <v>5769</v>
       </c>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="D217" t="s">
         <v>111</v>
@@ -7467,25 +7467,25 @@
         <v>112</v>
       </c>
       <c r="F217">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G217&gt;0,G217&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="B218">
-        <v>5860</v>
+        <v>5920</v>
       </c>
       <c r="C218" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="D218" t="s">
         <v>111</v>
@@ -7494,25 +7494,25 @@
         <v>112</v>
       </c>
       <c r="F218">
-        <v>327</v>
+        <v>87</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G218&gt;0,G218&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="B219">
-        <v>5812</v>
+        <v>5827</v>
       </c>
       <c r="C219" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="D219" t="s">
         <v>111</v>
@@ -7521,25 +7521,25 @@
         <v>112</v>
       </c>
       <c r="F219">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G219&gt;0,G219&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="B220">
-        <v>5788</v>
+        <v>5973</v>
       </c>
       <c r="C220" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="D220" t="s">
         <v>111</v>
@@ -7548,25 +7548,25 @@
         <v>112</v>
       </c>
       <c r="F220">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G220">
         <v>3</v>
       </c>
       <c r="H220" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G220&gt;0,G220&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="B221">
-        <v>5910</v>
+        <v>5979</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="D221" t="s">
         <v>111</v>
@@ -7575,25 +7575,25 @@
         <v>112</v>
       </c>
       <c r="F221">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G221">
         <v>1</v>
       </c>
       <c r="H221" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G221&gt;0,G221&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="B222">
-        <v>5779</v>
+        <v>5931</v>
       </c>
       <c r="C222" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="D222" t="s">
         <v>111</v>
@@ -7602,25 +7602,25 @@
         <v>112</v>
       </c>
       <c r="F222">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H222" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G222&gt;0,G222&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B223">
-        <v>5826</v>
+        <v>5768</v>
       </c>
       <c r="C223" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="D223" t="s">
         <v>111</v>
@@ -7629,25 +7629,25 @@
         <v>112</v>
       </c>
       <c r="F223">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H223" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G223&gt;0,G223&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="B224">
-        <v>5785</v>
+        <v>5980</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D224" t="s">
         <v>111</v>
@@ -7656,25 +7656,25 @@
         <v>112</v>
       </c>
       <c r="F224">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G224">
         <v>2</v>
       </c>
       <c r="H224" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G224&gt;0,G224&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B225">
-        <v>5902</v>
+        <v>5913</v>
       </c>
       <c r="C225" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="D225" t="s">
         <v>111</v>
@@ -7683,25 +7683,25 @@
         <v>112</v>
       </c>
       <c r="F225">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G225">
         <v>1</v>
       </c>
       <c r="H225" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G225&gt;0,G225&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B226">
-        <v>5726</v>
+        <v>5912</v>
       </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D226" t="s">
         <v>111</v>
@@ -7709,26 +7709,26 @@
       <c r="E226" t="s">
         <v>112</v>
       </c>
-      <c r="F226" t="s">
-        <v>88</v>
-      </c>
-      <c r="G226" t="s">
-        <v>88</v>
+      <c r="F226">
+        <v>90</v>
+      </c>
+      <c r="G226">
+        <v>5</v>
       </c>
       <c r="H226" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G226&gt;0,G226&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="B227">
-        <v>5873</v>
+        <v>5882</v>
       </c>
       <c r="C227" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="D227" t="s">
         <v>111</v>
@@ -7737,25 +7737,25 @@
         <v>112</v>
       </c>
       <c r="F227">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="G227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H227" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G227&gt;0,G227&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="B228">
-        <v>5848</v>
+        <v>5802</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="D228" t="s">
         <v>111</v>
@@ -7764,25 +7764,25 @@
         <v>112</v>
       </c>
       <c r="F228">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="G228">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H228" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G228&gt;0,G228&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="B229">
-        <v>5919</v>
+        <v>5981</v>
       </c>
       <c r="C229" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="D229" t="s">
         <v>111</v>
@@ -7791,25 +7791,25 @@
         <v>112</v>
       </c>
       <c r="F229">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G229&gt;0,G229&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="B230">
-        <v>5958</v>
+        <v>5783</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="D230" t="s">
         <v>111</v>
@@ -7818,25 +7818,25 @@
         <v>112</v>
       </c>
       <c r="F230">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="G230">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H230" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G230&gt;0,G230&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="B231">
-        <v>5809</v>
+        <v>5743</v>
       </c>
       <c r="C231" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="D231" t="s">
         <v>111</v>
@@ -7851,19 +7851,19 @@
         <v>1</v>
       </c>
       <c r="H231" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G231&gt;0,G231&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="B232">
-        <v>5731</v>
+        <v>5982</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="D232" t="s">
         <v>111</v>
@@ -7872,25 +7872,25 @@
         <v>112</v>
       </c>
       <c r="F232">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H232" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G232&gt;0,G232&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="B233">
-        <v>5771</v>
+        <v>5782</v>
       </c>
       <c r="C233" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="D233" t="s">
         <v>111</v>
@@ -7899,25 +7899,25 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="G233">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H233" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G233&gt;0,G233&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="B234">
-        <v>5942</v>
+        <v>5956</v>
       </c>
       <c r="C234" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="D234" t="s">
         <v>111</v>
@@ -7926,25 +7926,25 @@
         <v>112</v>
       </c>
       <c r="F234">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H234" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G234&gt;0,G234&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="B235">
-        <v>5874</v>
+        <v>5903</v>
       </c>
       <c r="C235" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="D235" t="s">
         <v>111</v>
@@ -7953,25 +7953,25 @@
         <v>112</v>
       </c>
       <c r="F235">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G235&gt;0,G235&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B236">
-        <v>5891</v>
+        <v>5742</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="D236" t="s">
         <v>111</v>
@@ -7980,25 +7980,25 @@
         <v>112</v>
       </c>
       <c r="F236">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G236">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H236" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G236&gt;0,G236&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="B237">
-        <v>5835</v>
+        <v>5901</v>
       </c>
       <c r="C237" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="D237" t="s">
         <v>111</v>
@@ -8007,25 +8007,25 @@
         <v>112</v>
       </c>
       <c r="F237">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G237">
         <v>1</v>
       </c>
       <c r="H237" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G237&gt;0,G237&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="B238">
-        <v>5789</v>
+        <v>5796</v>
       </c>
       <c r="C238" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="D238" t="s">
         <v>111</v>
@@ -8034,25 +8034,25 @@
         <v>112</v>
       </c>
       <c r="F238">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H238" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G238&gt;0,G238&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="B239">
-        <v>5927</v>
+        <v>5871</v>
       </c>
       <c r="C239" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="D239" t="s">
         <v>111</v>
@@ -8061,25 +8061,25 @@
         <v>112</v>
       </c>
       <c r="F239">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H239" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G239&gt;0,G239&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="B240">
-        <v>5885</v>
+        <v>5740</v>
       </c>
       <c r="C240" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="D240" t="s">
         <v>111</v>
@@ -8088,25 +8088,25 @@
         <v>112</v>
       </c>
       <c r="F240">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="G240">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H240" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G240&gt;0,G240&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="B241">
-        <v>5818</v>
+        <v>5773</v>
       </c>
       <c r="C241" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="D241" t="s">
         <v>111</v>
@@ -8115,25 +8115,25 @@
         <v>112</v>
       </c>
       <c r="F241">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G241">
         <v>1</v>
       </c>
       <c r="H241" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G241&gt;0,G241&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="B242">
-        <v>5856</v>
+        <v>5849</v>
       </c>
       <c r="C242" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
       <c r="D242" t="s">
         <v>111</v>
@@ -8142,25 +8142,25 @@
         <v>112</v>
       </c>
       <c r="F242">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G242">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H242" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G242&gt;0,G242&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="B243">
-        <v>5738</v>
+        <v>5850</v>
       </c>
       <c r="C243" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="D243" t="s">
         <v>111</v>
@@ -8169,25 +8169,25 @@
         <v>112</v>
       </c>
       <c r="F243">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="G243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H243" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G243&gt;0,G243&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="B244">
-        <v>5765</v>
+        <v>5825</v>
       </c>
       <c r="C244" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="D244" t="s">
         <v>111</v>
@@ -8196,25 +8196,25 @@
         <v>112</v>
       </c>
       <c r="F244">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G244&gt;0,G244&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="B245">
-        <v>5897</v>
+        <v>5886</v>
       </c>
       <c r="C245" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="D245" t="s">
         <v>111</v>
@@ -8222,26 +8222,26 @@
       <c r="E245" t="s">
         <v>112</v>
       </c>
-      <c r="F245" t="s">
-        <v>88</v>
-      </c>
-      <c r="G245" t="s">
-        <v>88</v>
+      <c r="F245">
+        <v>125</v>
+      </c>
+      <c r="G245">
+        <v>2</v>
       </c>
       <c r="H245" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G245&gt;0,G245&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B246">
-        <v>5877</v>
+        <v>5778</v>
       </c>
       <c r="C246" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="D246" t="s">
         <v>111</v>
@@ -8250,25 +8250,25 @@
         <v>112</v>
       </c>
       <c r="F246">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="G246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H246" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G246&gt;0,G246&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="B247">
-        <v>5855</v>
+        <v>5730</v>
       </c>
       <c r="C247" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="D247" t="s">
         <v>111</v>
@@ -8277,25 +8277,25 @@
         <v>112</v>
       </c>
       <c r="F247">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="G247">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H247" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G247&gt;0,G247&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="B248">
-        <v>5770</v>
+        <v>5864</v>
       </c>
       <c r="C248" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="D248" t="s">
         <v>111</v>
@@ -8304,25 +8304,25 @@
         <v>112</v>
       </c>
       <c r="F248">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G248">
         <v>1</v>
       </c>
       <c r="H248" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G248&gt;0,G248&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="B249">
-        <v>5804</v>
+        <v>5854</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="D249" t="s">
         <v>111</v>
@@ -8331,25 +8331,25 @@
         <v>112</v>
       </c>
       <c r="F249">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="H249" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G249&gt;0,G249&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="B250">
-        <v>5915</v>
+        <v>5741</v>
       </c>
       <c r="C250" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="D250" t="s">
         <v>111</v>
@@ -8358,25 +8358,25 @@
         <v>112</v>
       </c>
       <c r="F250">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H250" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G250&gt;0,G250&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="B251">
-        <v>5807</v>
+        <v>5983</v>
       </c>
       <c r="C251" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="D251" t="s">
         <v>111</v>
@@ -8385,25 +8385,25 @@
         <v>112</v>
       </c>
       <c r="F251">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G251&gt;0,G251&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="B252">
-        <v>5760</v>
+        <v>5842</v>
       </c>
       <c r="C252" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="D252" t="s">
         <v>111</v>
@@ -8411,26 +8411,26 @@
       <c r="E252" t="s">
         <v>112</v>
       </c>
-      <c r="F252" t="s">
-        <v>88</v>
-      </c>
-      <c r="G252" t="s">
-        <v>88</v>
+      <c r="F252">
+        <v>73</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
       </c>
       <c r="H252" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G252&gt;0,G252&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="B253">
-        <v>5800</v>
+        <v>5845</v>
       </c>
       <c r="C253" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
         <v>111</v>
@@ -8439,25 +8439,25 @@
         <v>112</v>
       </c>
       <c r="F253">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H253" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G253&gt;0,G253&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="B254">
-        <v>5928</v>
+        <v>5957</v>
       </c>
       <c r="C254" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="D254" t="s">
         <v>111</v>
@@ -8466,25 +8466,25 @@
         <v>112</v>
       </c>
       <c r="F254">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H254" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G254&gt;0,G254&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="B255">
-        <v>5790</v>
+        <v>5963</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="D255" t="s">
         <v>111</v>
@@ -8493,25 +8493,25 @@
         <v>112</v>
       </c>
       <c r="F255">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H255" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f>IF(AND(G255&gt;0,G255&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>156</v>
+        <v>247</v>
       </c>
       <c r="B256">
-        <v>5750</v>
+        <v>5761</v>
       </c>
       <c r="C256" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="D256" t="s">
         <v>111</v>
@@ -8520,25 +8520,25 @@
         <v>112</v>
       </c>
       <c r="F256">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G256&gt;0,G256&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="B257">
-        <v>5736</v>
+        <v>5971</v>
       </c>
       <c r="C257" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="D257" t="s">
         <v>111</v>
@@ -8547,25 +8547,25 @@
         <v>112</v>
       </c>
       <c r="F257">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(G257&gt;0,G257&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="B258">
-        <v>5946</v>
+        <v>5953</v>
       </c>
       <c r="C258" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="D258" t="s">
         <v>111</v>
@@ -8574,25 +8574,25 @@
         <v>112</v>
       </c>
       <c r="F258">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" s="1" t="str">
-        <f t="shared" ref="H258:H321" si="4">IF(AND(G258&gt;0,G258&lt;&gt;"NULL"),"YES","NO")</f>
-        <v>NO</v>
+        <f>IF(AND(G258&gt;0,G258&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="B259">
-        <v>5751</v>
+        <v>5904</v>
       </c>
       <c r="C259" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="D259" t="s">
         <v>111</v>
@@ -8601,25 +8601,25 @@
         <v>112</v>
       </c>
       <c r="F259">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G259">
         <v>1</v>
       </c>
       <c r="H259" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G259&gt;0,G259&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="B260">
-        <v>5759</v>
+        <v>5820</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="D260" t="s">
         <v>111</v>
@@ -8628,52 +8628,52 @@
         <v>112</v>
       </c>
       <c r="F260">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G260&gt;0,G260&lt;&gt;"NULL"),"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="B261">
-        <v>5950</v>
+        <v>5985</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="D261" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="E261" t="s">
-        <v>112</v>
-      </c>
-      <c r="F261">
-        <v>84</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F261" t="s">
+        <v>88</v>
+      </c>
+      <c r="G261" t="s">
+        <v>88</v>
       </c>
       <c r="H261" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G261&gt;0,G261&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B262">
-        <v>5924</v>
+        <v>5944</v>
       </c>
       <c r="C262" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="D262" t="s">
         <v>111</v>
@@ -8681,26 +8681,26 @@
       <c r="E262" t="s">
         <v>112</v>
       </c>
-      <c r="F262">
-        <v>54</v>
-      </c>
-      <c r="G262">
-        <v>0</v>
+      <c r="F262" t="s">
+        <v>88</v>
+      </c>
+      <c r="G262" t="s">
+        <v>88</v>
       </c>
       <c r="H262" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G262&gt;0,G262&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="B263">
-        <v>5929</v>
+        <v>5753</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="D263" t="s">
         <v>111</v>
@@ -8709,52 +8709,52 @@
         <v>112</v>
       </c>
       <c r="F263">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="G263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H263" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G263&gt;0,G263&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="B264">
-        <v>5930</v>
+        <v>5868</v>
       </c>
       <c r="C264" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="D264" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E264" t="s">
         <v>112</v>
       </c>
       <c r="F264">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="G264">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H264" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G264&gt;0,G264&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="B265">
-        <v>5755</v>
+        <v>5933</v>
       </c>
       <c r="C265" t="s">
-        <v>278</v>
+        <v>120</v>
       </c>
       <c r="D265" t="s">
         <v>111</v>
@@ -8763,25 +8763,25 @@
         <v>112</v>
       </c>
       <c r="F265">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G265&gt;0,G265&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="B266">
-        <v>5817</v>
+        <v>5838</v>
       </c>
       <c r="C266" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="D266" t="s">
         <v>111</v>
@@ -8790,25 +8790,25 @@
         <v>112</v>
       </c>
       <c r="F266">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G266&gt;0,G266&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="B267">
-        <v>5851</v>
+        <v>5840</v>
       </c>
       <c r="C267" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="D267" t="s">
         <v>111</v>
@@ -8817,25 +8817,25 @@
         <v>112</v>
       </c>
       <c r="F267">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G267&gt;0,G267&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="B268">
-        <v>5917</v>
+        <v>5945</v>
       </c>
       <c r="C268" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="D268" t="s">
         <v>111</v>
@@ -8844,25 +8844,25 @@
         <v>112</v>
       </c>
       <c r="F268">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G268&gt;0,G268&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="B269">
-        <v>5916</v>
+        <v>5967</v>
       </c>
       <c r="C269" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="D269" t="s">
         <v>111</v>
@@ -8871,25 +8871,25 @@
         <v>112</v>
       </c>
       <c r="F269">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
       <c r="H269" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G269&gt;0,G269&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="B270">
-        <v>5984</v>
+        <v>5739</v>
       </c>
       <c r="C270" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="D270" t="s">
         <v>111</v>
@@ -8901,22 +8901,22 @@
         <v>72</v>
       </c>
       <c r="G270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H270" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G270&gt;0,G270&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="B271">
-        <v>5879</v>
+        <v>5774</v>
       </c>
       <c r="C271" t="s">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="D271" t="s">
         <v>111</v>
@@ -8925,25 +8925,25 @@
         <v>112</v>
       </c>
       <c r="F271">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G271&gt;0,G271&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="B272">
-        <v>5907</v>
+        <v>5737</v>
       </c>
       <c r="C272" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="D272" t="s">
         <v>111</v>
@@ -8952,25 +8952,25 @@
         <v>112</v>
       </c>
       <c r="F272">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G272&gt;0,G272&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="B273">
-        <v>5898</v>
+        <v>5799</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="D273" t="s">
         <v>111</v>
@@ -8979,25 +8979,25 @@
         <v>112</v>
       </c>
       <c r="F273">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="G273">
         <v>0</v>
       </c>
       <c r="H273" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G273&gt;0,G273&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="B274">
-        <v>5866</v>
+        <v>5972</v>
       </c>
       <c r="C274" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="D274" t="s">
         <v>111</v>
@@ -9006,25 +9006,25 @@
         <v>112</v>
       </c>
       <c r="F274">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G274&gt;0,G274&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="B275">
-        <v>5925</v>
+        <v>5733</v>
       </c>
       <c r="C275" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="D275" t="s">
         <v>111</v>
@@ -9033,25 +9033,25 @@
         <v>112</v>
       </c>
       <c r="F275">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G275">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H275" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G275&gt;0,G275&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="B276">
-        <v>5808</v>
+        <v>5862</v>
       </c>
       <c r="C276" t="s">
-        <v>289</v>
+        <v>161</v>
       </c>
       <c r="D276" t="s">
         <v>111</v>
@@ -9060,25 +9060,25 @@
         <v>112</v>
       </c>
       <c r="F276">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
       <c r="H276" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G276&gt;0,G276&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="B277">
-        <v>5900</v>
+        <v>5935</v>
       </c>
       <c r="C277" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="D277" t="s">
         <v>111</v>
@@ -9087,25 +9087,25 @@
         <v>112</v>
       </c>
       <c r="F277">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H277" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G277&gt;0,G277&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="B278">
-        <v>5767</v>
+        <v>5932</v>
       </c>
       <c r="C278" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="D278" t="s">
         <v>111</v>
@@ -9114,25 +9114,25 @@
         <v>112</v>
       </c>
       <c r="F278">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G278">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H278" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G278&gt;0,G278&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="B279">
-        <v>5926</v>
+        <v>5865</v>
       </c>
       <c r="C279" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="D279" t="s">
         <v>111</v>
@@ -9141,25 +9141,25 @@
         <v>112</v>
       </c>
       <c r="F279">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H279" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G279&gt;0,G279&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="B280">
-        <v>5769</v>
+        <v>5822</v>
       </c>
       <c r="C280" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="D280" t="s">
         <v>111</v>
@@ -9168,25 +9168,25 @@
         <v>112</v>
       </c>
       <c r="F280">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H280" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G280&gt;0,G280&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="B281">
-        <v>5766</v>
+        <v>5884</v>
       </c>
       <c r="C281" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="D281" t="s">
         <v>111</v>
@@ -9195,25 +9195,25 @@
         <v>112</v>
       </c>
       <c r="F281">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="G281">
         <v>0</v>
       </c>
       <c r="H281" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G281&gt;0,G281&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B282">
-        <v>5815</v>
+        <v>5867</v>
       </c>
       <c r="C282" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="D282" t="s">
         <v>111</v>
@@ -9221,26 +9221,26 @@
       <c r="E282" t="s">
         <v>112</v>
       </c>
-      <c r="F282" t="s">
-        <v>88</v>
-      </c>
-      <c r="G282" t="s">
-        <v>88</v>
+      <c r="F282">
+        <v>58</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
       </c>
       <c r="H282" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G282&gt;0,G282&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="B283">
-        <v>5920</v>
+        <v>5793</v>
       </c>
       <c r="C283" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="D283" t="s">
         <v>111</v>
@@ -9248,53 +9248,53 @@
       <c r="E283" t="s">
         <v>112</v>
       </c>
-      <c r="F283">
-        <v>87</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
+      <c r="F283" t="s">
+        <v>88</v>
+      </c>
+      <c r="G283" t="s">
+        <v>88</v>
       </c>
       <c r="H283" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G283&gt;0,G283&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="B284">
-        <v>5756</v>
+        <v>5814</v>
       </c>
       <c r="C284" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="D284" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="E284" t="s">
         <v>112</v>
       </c>
-      <c r="F284">
-        <v>64</v>
-      </c>
-      <c r="G284">
-        <v>0</v>
+      <c r="F284" t="s">
+        <v>88</v>
+      </c>
+      <c r="G284" t="s">
+        <v>88</v>
       </c>
       <c r="H284" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G284&gt;0,G284&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="B285">
-        <v>5819</v>
+        <v>5852</v>
       </c>
       <c r="C285" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="D285" t="s">
         <v>111</v>
@@ -9303,25 +9303,25 @@
         <v>112</v>
       </c>
       <c r="F285">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
       <c r="H285" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G285&gt;0,G285&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="B286">
-        <v>5947</v>
+        <v>5792</v>
       </c>
       <c r="C286" t="s">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="D286" t="s">
         <v>111</v>
@@ -9329,26 +9329,26 @@
       <c r="E286" t="s">
         <v>112</v>
       </c>
-      <c r="F286" t="s">
-        <v>88</v>
-      </c>
-      <c r="G286" t="s">
-        <v>88</v>
+      <c r="F286">
+        <v>105</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
       </c>
       <c r="H286" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G286&gt;0,G286&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="B287">
-        <v>5827</v>
+        <v>5784</v>
       </c>
       <c r="C287" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="D287" t="s">
         <v>111</v>
@@ -9357,25 +9357,25 @@
         <v>112</v>
       </c>
       <c r="F287">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G287&gt;0,G287&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="B288">
-        <v>5973</v>
+        <v>5960</v>
       </c>
       <c r="C288" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="D288" t="s">
         <v>111</v>
@@ -9384,25 +9384,25 @@
         <v>112</v>
       </c>
       <c r="F288">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G288">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H288" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G288&gt;0,G288&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="B289">
-        <v>5775</v>
+        <v>5754</v>
       </c>
       <c r="C289" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="D289" t="s">
         <v>111</v>
@@ -9411,25 +9411,25 @@
         <v>112</v>
       </c>
       <c r="F289">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G289">
         <v>0</v>
       </c>
       <c r="H289" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G289&gt;0,G289&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="B290">
-        <v>5979</v>
+        <v>5816</v>
       </c>
       <c r="C290" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="D290" t="s">
         <v>111</v>
@@ -9437,26 +9437,26 @@
       <c r="E290" t="s">
         <v>112</v>
       </c>
-      <c r="F290">
-        <v>90</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
+      <c r="F290" t="s">
+        <v>88</v>
+      </c>
+      <c r="G290" t="s">
+        <v>88</v>
       </c>
       <c r="H290" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G290&gt;0,G290&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="B291">
-        <v>5931</v>
+        <v>5776</v>
       </c>
       <c r="C291" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="D291" t="s">
         <v>111</v>
@@ -9465,25 +9465,25 @@
         <v>112</v>
       </c>
       <c r="F291">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="G291">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H291" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G291&gt;0,G291&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="B292">
-        <v>5781</v>
+        <v>5763</v>
       </c>
       <c r="C292" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D292" t="s">
         <v>111</v>
@@ -9491,26 +9491,26 @@
       <c r="E292" t="s">
         <v>112</v>
       </c>
-      <c r="F292">
-        <v>325</v>
-      </c>
-      <c r="G292">
-        <v>0</v>
+      <c r="F292" t="s">
+        <v>88</v>
+      </c>
+      <c r="G292" t="s">
+        <v>88</v>
       </c>
       <c r="H292" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G292&gt;0,G292&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="B293">
-        <v>5937</v>
+        <v>5923</v>
       </c>
       <c r="C293" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="D293" t="s">
         <v>111</v>
@@ -9519,25 +9519,25 @@
         <v>112</v>
       </c>
       <c r="F293">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G293">
         <v>0</v>
       </c>
       <c r="H293" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G293&gt;0,G293&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="B294">
-        <v>5794</v>
+        <v>5863</v>
       </c>
       <c r="C294" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="D294" t="s">
         <v>111</v>
@@ -9545,26 +9545,26 @@
       <c r="E294" t="s">
         <v>112</v>
       </c>
-      <c r="F294" t="s">
-        <v>88</v>
-      </c>
-      <c r="G294" t="s">
-        <v>88</v>
+      <c r="F294">
+        <v>58</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
       </c>
       <c r="H294" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G294&gt;0,G294&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="B295">
-        <v>5768</v>
+        <v>5943</v>
       </c>
       <c r="C295" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="D295" t="s">
         <v>111</v>
@@ -9573,25 +9573,25 @@
         <v>112</v>
       </c>
       <c r="F295">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G295">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H295" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G295&gt;0,G295&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="B296">
-        <v>5980</v>
+        <v>5841</v>
       </c>
       <c r="C296" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="D296" t="s">
         <v>111</v>
@@ -9600,25 +9600,25 @@
         <v>112</v>
       </c>
       <c r="F296">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H296" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G296&gt;0,G296&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="B297">
-        <v>5913</v>
+        <v>5976</v>
       </c>
       <c r="C297" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="D297" t="s">
         <v>111</v>
@@ -9627,25 +9627,25 @@
         <v>112</v>
       </c>
       <c r="F297">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G297&gt;0,G297&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="B298">
-        <v>5912</v>
+        <v>5858</v>
       </c>
       <c r="C298" t="s">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="D298" t="s">
         <v>111</v>
@@ -9654,25 +9654,25 @@
         <v>112</v>
       </c>
       <c r="F298">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G298">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H298" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G298&gt;0,G298&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="B299">
-        <v>5881</v>
+        <v>5777</v>
       </c>
       <c r="C299" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="D299" t="s">
         <v>111</v>
@@ -9680,26 +9680,26 @@
       <c r="E299" t="s">
         <v>112</v>
       </c>
-      <c r="F299" t="s">
-        <v>88</v>
-      </c>
-      <c r="G299" t="s">
-        <v>88</v>
+      <c r="F299">
+        <v>82</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
       </c>
       <c r="H299" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G299&gt;0,G299&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="B300">
-        <v>5882</v>
+        <v>5969</v>
       </c>
       <c r="C300" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="D300" t="s">
         <v>111</v>
@@ -9708,25 +9708,25 @@
         <v>112</v>
       </c>
       <c r="F300">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H300" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G300&gt;0,G300&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B301">
-        <v>5878</v>
+        <v>5787</v>
       </c>
       <c r="C301" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="D301" t="s">
         <v>111</v>
@@ -9735,25 +9735,25 @@
         <v>112</v>
       </c>
       <c r="F301">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="G301">
         <v>0</v>
       </c>
       <c r="H301" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G301&gt;0,G301&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B302">
-        <v>5802</v>
+        <v>5834</v>
       </c>
       <c r="C302" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="D302" t="s">
         <v>111</v>
@@ -9762,25 +9762,25 @@
         <v>112</v>
       </c>
       <c r="F302">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G302&gt;0,G302&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="B303">
-        <v>5981</v>
+        <v>5860</v>
       </c>
       <c r="C303" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="D303" t="s">
         <v>111</v>
@@ -9789,25 +9789,25 @@
         <v>112</v>
       </c>
       <c r="F303">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H303" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G303&gt;0,G303&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="B304">
-        <v>5836</v>
+        <v>5812</v>
       </c>
       <c r="C304" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="D304" t="s">
         <v>111</v>
@@ -9816,25 +9816,25 @@
         <v>112</v>
       </c>
       <c r="F304">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="G304">
         <v>0</v>
       </c>
       <c r="H304" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G304&gt;0,G304&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B305">
-        <v>5783</v>
+        <v>5779</v>
       </c>
       <c r="C305" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="D305" t="s">
         <v>111</v>
@@ -9843,25 +9843,25 @@
         <v>112</v>
       </c>
       <c r="F305">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="G305">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H305" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G305&gt;0,G305&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="B306">
-        <v>5743</v>
+        <v>5726</v>
       </c>
       <c r="C306" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="D306" t="s">
         <v>111</v>
@@ -9869,26 +9869,26 @@
       <c r="E306" t="s">
         <v>112</v>
       </c>
-      <c r="F306">
-        <v>85</v>
-      </c>
-      <c r="G306">
-        <v>1</v>
+      <c r="F306" t="s">
+        <v>88</v>
+      </c>
+      <c r="G306" t="s">
+        <v>88</v>
       </c>
       <c r="H306" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G306&gt;0,G306&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="B307">
-        <v>5982</v>
+        <v>5731</v>
       </c>
       <c r="C307" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="D307" t="s">
         <v>111</v>
@@ -9897,25 +9897,25 @@
         <v>112</v>
       </c>
       <c r="F307">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G307">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H307" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G307&gt;0,G307&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="B308">
-        <v>5752</v>
+        <v>5942</v>
       </c>
       <c r="C308" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="D308" t="s">
         <v>111</v>
@@ -9924,25 +9924,25 @@
         <v>112</v>
       </c>
       <c r="F308">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G308">
         <v>0</v>
       </c>
       <c r="H308" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G308&gt;0,G308&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B309">
-        <v>5782</v>
+        <v>5789</v>
       </c>
       <c r="C309" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="D309" t="s">
         <v>111</v>
@@ -9951,25 +9951,25 @@
         <v>112</v>
       </c>
       <c r="F309">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="G309">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H309" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G309&gt;0,G309&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B310">
-        <v>5956</v>
+        <v>5765</v>
       </c>
       <c r="C310" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="D310" t="s">
         <v>111</v>
@@ -9978,25 +9978,25 @@
         <v>112</v>
       </c>
       <c r="F310">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="G310">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H310" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G310&gt;0,G310&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="B311">
-        <v>5903</v>
+        <v>5897</v>
       </c>
       <c r="C311" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="D311" t="s">
         <v>111</v>
@@ -10004,26 +10004,26 @@
       <c r="E311" t="s">
         <v>112</v>
       </c>
-      <c r="F311">
-        <v>77</v>
-      </c>
-      <c r="G311">
-        <v>3</v>
+      <c r="F311" t="s">
+        <v>88</v>
+      </c>
+      <c r="G311" t="s">
+        <v>88</v>
       </c>
       <c r="H311" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G311&gt;0,G311&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="B312">
-        <v>5742</v>
+        <v>5760</v>
       </c>
       <c r="C312" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="D312" t="s">
         <v>111</v>
@@ -10031,26 +10031,26 @@
       <c r="E312" t="s">
         <v>112</v>
       </c>
-      <c r="F312">
-        <v>229</v>
-      </c>
-      <c r="G312">
-        <v>5</v>
+      <c r="F312" t="s">
+        <v>88</v>
+      </c>
+      <c r="G312" t="s">
+        <v>88</v>
       </c>
       <c r="H312" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G312&gt;0,G312&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="B313">
-        <v>5901</v>
+        <v>5790</v>
       </c>
       <c r="C313" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="D313" t="s">
         <v>111</v>
@@ -10059,25 +10059,25 @@
         <v>112</v>
       </c>
       <c r="F313">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H313" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G313&gt;0,G313&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B314">
-        <v>5883</v>
+        <v>5946</v>
       </c>
       <c r="C314" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="D314" t="s">
         <v>111</v>
@@ -10085,26 +10085,26 @@
       <c r="E314" t="s">
         <v>112</v>
       </c>
-      <c r="F314" t="s">
-        <v>88</v>
-      </c>
-      <c r="G314" t="s">
-        <v>88</v>
+      <c r="F314">
+        <v>80</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
       </c>
       <c r="H314" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G314&gt;0,G314&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="B315">
-        <v>5936</v>
+        <v>5924</v>
       </c>
       <c r="C315" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="D315" t="s">
         <v>111</v>
@@ -10113,25 +10113,25 @@
         <v>112</v>
       </c>
       <c r="F315">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G315">
         <v>0</v>
       </c>
       <c r="H315" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G315&gt;0,G315&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="B316">
-        <v>5796</v>
+        <v>5755</v>
       </c>
       <c r="C316" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="D316" t="s">
         <v>111</v>
@@ -10140,25 +10140,25 @@
         <v>112</v>
       </c>
       <c r="F316">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="G316">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H316" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G316&gt;0,G316&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="B317">
-        <v>5962</v>
+        <v>5817</v>
       </c>
       <c r="C317" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="D317" t="s">
         <v>111</v>
@@ -10167,25 +10167,25 @@
         <v>112</v>
       </c>
       <c r="F317">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G317">
         <v>0</v>
       </c>
       <c r="H317" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G317&gt;0,G317&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="B318">
-        <v>5871</v>
+        <v>5916</v>
       </c>
       <c r="C318" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="D318" t="s">
         <v>111</v>
@@ -10194,25 +10194,25 @@
         <v>112</v>
       </c>
       <c r="F318">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G318">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H318" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G318&gt;0,G318&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="B319">
-        <v>5875</v>
+        <v>5879</v>
       </c>
       <c r="C319" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="D319" t="s">
         <v>111</v>
@@ -10221,25 +10221,25 @@
         <v>112</v>
       </c>
       <c r="F319">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G319">
         <v>0</v>
       </c>
       <c r="H319" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G319&gt;0,G319&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B320">
-        <v>5801</v>
+        <v>5907</v>
       </c>
       <c r="C320" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="D320" t="s">
         <v>111</v>
@@ -10248,25 +10248,25 @@
         <v>112</v>
       </c>
       <c r="F320">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G320">
         <v>0</v>
       </c>
       <c r="H320" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(AND(G320&gt;0,G320&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="B321">
-        <v>5740</v>
+        <v>5898</v>
       </c>
       <c r="C321" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="D321" t="s">
         <v>111</v>
@@ -10275,25 +10275,25 @@
         <v>112</v>
       </c>
       <c r="F321">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H321" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>YES</v>
+        <f>IF(AND(G321&gt;0,G321&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B322">
-        <v>5773</v>
+        <v>5866</v>
       </c>
       <c r="C322" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D322" t="s">
         <v>111</v>
@@ -10302,25 +10302,25 @@
         <v>112</v>
       </c>
       <c r="F322">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H322" s="1" t="str">
-        <f t="shared" ref="H322:H385" si="5">IF(AND(G322&gt;0,G322&lt;&gt;"NULL"),"YES","NO")</f>
-        <v>YES</v>
+        <f>IF(AND(G322&gt;0,G322&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="B323">
-        <v>5849</v>
+        <v>5808</v>
       </c>
       <c r="C323" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="D323" t="s">
         <v>111</v>
@@ -10329,25 +10329,25 @@
         <v>112</v>
       </c>
       <c r="F323">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="G323">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H323" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G323&gt;0,G323&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="B324">
-        <v>5757</v>
+        <v>5766</v>
       </c>
       <c r="C324" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="D324" t="s">
         <v>111</v>
@@ -10356,25 +10356,25 @@
         <v>112</v>
       </c>
       <c r="F324">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G324">
         <v>0</v>
       </c>
       <c r="H324" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G324&gt;0,G324&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="B325">
-        <v>5911</v>
+        <v>5815</v>
       </c>
       <c r="C325" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="D325" t="s">
         <v>111</v>
@@ -10382,26 +10382,26 @@
       <c r="E325" t="s">
         <v>112</v>
       </c>
-      <c r="F325">
-        <v>71</v>
-      </c>
-      <c r="G325">
-        <v>0</v>
+      <c r="F325" t="s">
+        <v>88</v>
+      </c>
+      <c r="G325" t="s">
+        <v>88</v>
       </c>
       <c r="H325" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G325&gt;0,G325&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B326">
-        <v>5850</v>
+        <v>5756</v>
       </c>
       <c r="C326" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="D326" t="s">
         <v>111</v>
@@ -10410,25 +10410,25 @@
         <v>112</v>
       </c>
       <c r="F326">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="G326">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H326" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G326&gt;0,G326&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B327">
-        <v>5786</v>
+        <v>5819</v>
       </c>
       <c r="C327" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="D327" t="s">
         <v>111</v>
@@ -10437,25 +10437,25 @@
         <v>112</v>
       </c>
       <c r="F327">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="G327">
         <v>0</v>
       </c>
       <c r="H327" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G327&gt;0,G327&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B328">
-        <v>5825</v>
+        <v>5947</v>
       </c>
       <c r="C328" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="D328" t="s">
         <v>111</v>
@@ -10463,26 +10463,26 @@
       <c r="E328" t="s">
         <v>112</v>
       </c>
-      <c r="F328">
-        <v>71</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
+      <c r="F328" t="s">
+        <v>88</v>
+      </c>
+      <c r="G328" t="s">
+        <v>88</v>
       </c>
       <c r="H328" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G328&gt;0,G328&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="B329">
-        <v>5886</v>
+        <v>5775</v>
       </c>
       <c r="C329" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D329" t="s">
         <v>111</v>
@@ -10491,25 +10491,25 @@
         <v>112</v>
       </c>
       <c r="F329">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H329" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G329&gt;0,G329&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B330">
-        <v>5778</v>
+        <v>5781</v>
       </c>
       <c r="C330" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D330" t="s">
         <v>111</v>
@@ -10518,25 +10518,25 @@
         <v>112</v>
       </c>
       <c r="F330">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G330&gt;0,G330&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B331">
-        <v>5837</v>
+        <v>5937</v>
       </c>
       <c r="C331" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D331" t="s">
         <v>111</v>
@@ -10545,25 +10545,25 @@
         <v>112</v>
       </c>
       <c r="F331">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G331">
         <v>0</v>
       </c>
       <c r="H331" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G331&gt;0,G331&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="B332">
-        <v>5968</v>
+        <v>5794</v>
       </c>
       <c r="C332" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="D332" t="s">
         <v>111</v>
@@ -10578,19 +10578,19 @@
         <v>88</v>
       </c>
       <c r="H332" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G332&gt;0,G332&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B333">
-        <v>5730</v>
+        <v>5881</v>
       </c>
       <c r="C333" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="D333" t="s">
         <v>111</v>
@@ -10598,26 +10598,26 @@
       <c r="E333" t="s">
         <v>112</v>
       </c>
-      <c r="F333">
-        <v>75</v>
-      </c>
-      <c r="G333">
-        <v>2</v>
+      <c r="F333" t="s">
+        <v>88</v>
+      </c>
+      <c r="G333" t="s">
+        <v>88</v>
       </c>
       <c r="H333" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G333&gt;0,G333&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B334">
-        <v>5864</v>
+        <v>5878</v>
       </c>
       <c r="C334" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="D334" t="s">
         <v>111</v>
@@ -10626,25 +10626,25 @@
         <v>112</v>
       </c>
       <c r="F334">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H334" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G334&gt;0,G334&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B335">
-        <v>5895</v>
+        <v>5836</v>
       </c>
       <c r="C335" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="D335" t="s">
         <v>111</v>
@@ -10653,25 +10653,25 @@
         <v>112</v>
       </c>
       <c r="F335">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G335">
         <v>0</v>
       </c>
       <c r="H335" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G335&gt;0,G335&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B336">
-        <v>5854</v>
+        <v>5752</v>
       </c>
       <c r="C336" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D336" t="s">
         <v>111</v>
@@ -10680,25 +10680,25 @@
         <v>112</v>
       </c>
       <c r="F336">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="G336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H336" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G336&gt;0,G336&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B337">
-        <v>5741</v>
+        <v>5883</v>
       </c>
       <c r="C337" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D337" t="s">
         <v>111</v>
@@ -10706,26 +10706,26 @@
       <c r="E337" t="s">
         <v>112</v>
       </c>
-      <c r="F337">
-        <v>233</v>
-      </c>
-      <c r="G337">
-        <v>6</v>
+      <c r="F337" t="s">
+        <v>88</v>
+      </c>
+      <c r="G337" t="s">
+        <v>88</v>
       </c>
       <c r="H337" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G337&gt;0,G337&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B338">
-        <v>5762</v>
+        <v>5936</v>
       </c>
       <c r="C338" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="D338" t="s">
         <v>111</v>
@@ -10734,25 +10734,25 @@
         <v>112</v>
       </c>
       <c r="F338">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="G338">
         <v>0</v>
       </c>
       <c r="H338" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G338&gt;0,G338&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B339">
-        <v>5983</v>
+        <v>5962</v>
       </c>
       <c r="C339" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D339" t="s">
         <v>111</v>
@@ -10761,25 +10761,25 @@
         <v>112</v>
       </c>
       <c r="F339">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H339" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G339&gt;0,G339&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B340">
-        <v>5842</v>
+        <v>5875</v>
       </c>
       <c r="C340" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D340" t="s">
         <v>111</v>
@@ -10788,52 +10788,52 @@
         <v>112</v>
       </c>
       <c r="F340">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H340" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G340&gt;0,G340&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B341">
-        <v>5791</v>
+        <v>5801</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D341" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="E341" t="s">
         <v>112</v>
       </c>
-      <c r="F341" t="s">
-        <v>88</v>
-      </c>
-      <c r="G341" t="s">
-        <v>88</v>
+      <c r="F341">
+        <v>81</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
       </c>
       <c r="H341" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G341&gt;0,G341&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B342">
-        <v>5845</v>
+        <v>5757</v>
       </c>
       <c r="C342" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D342" t="s">
         <v>111</v>
@@ -10842,25 +10842,25 @@
         <v>112</v>
       </c>
       <c r="F342">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="G342">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H342" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G342&gt;0,G342&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B343">
-        <v>5957</v>
+        <v>5911</v>
       </c>
       <c r="C343" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D343" t="s">
         <v>111</v>
@@ -10869,25 +10869,25 @@
         <v>112</v>
       </c>
       <c r="F343">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="G343">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H343" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G343&gt;0,G343&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B344">
-        <v>5941</v>
+        <v>5786</v>
       </c>
       <c r="C344" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D344" t="s">
         <v>111</v>
@@ -10896,25 +10896,25 @@
         <v>112</v>
       </c>
       <c r="F344">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G344">
         <v>0</v>
       </c>
       <c r="H344" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G344&gt;0,G344&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B345">
-        <v>5732</v>
+        <v>5837</v>
       </c>
       <c r="C345" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D345" t="s">
         <v>111</v>
@@ -10923,25 +10923,25 @@
         <v>112</v>
       </c>
       <c r="F345">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G345">
         <v>0</v>
       </c>
       <c r="H345" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G345&gt;0,G345&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B346">
-        <v>5963</v>
+        <v>5968</v>
       </c>
       <c r="C346" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D346" t="s">
         <v>111</v>
@@ -10949,26 +10949,26 @@
       <c r="E346" t="s">
         <v>112</v>
       </c>
-      <c r="F346">
-        <v>242</v>
-      </c>
-      <c r="G346">
-        <v>17</v>
+      <c r="F346" t="s">
+        <v>88</v>
+      </c>
+      <c r="G346" t="s">
+        <v>88</v>
       </c>
       <c r="H346" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G346&gt;0,G346&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B347">
-        <v>5761</v>
+        <v>5895</v>
       </c>
       <c r="C347" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D347" t="s">
         <v>111</v>
@@ -10977,25 +10977,25 @@
         <v>112</v>
       </c>
       <c r="F347">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="G347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H347" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G347&gt;0,G347&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B348">
-        <v>5971</v>
+        <v>5762</v>
       </c>
       <c r="C348" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D348" t="s">
         <v>111</v>
@@ -11004,52 +11004,52 @@
         <v>112</v>
       </c>
       <c r="F348">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="G348">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H348" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G348&gt;0,G348&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B349">
-        <v>5906</v>
+        <v>5791</v>
       </c>
       <c r="C349" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="E349" t="s">
         <v>112</v>
       </c>
-      <c r="F349">
-        <v>70</v>
-      </c>
-      <c r="G349">
-        <v>0</v>
+      <c r="F349" t="s">
+        <v>88</v>
+      </c>
+      <c r="G349" t="s">
+        <v>88</v>
       </c>
       <c r="H349" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G349&gt;0,G349&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B350">
-        <v>5953</v>
+        <v>5941</v>
       </c>
       <c r="C350" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D350" t="s">
         <v>111</v>
@@ -11058,25 +11058,25 @@
         <v>112</v>
       </c>
       <c r="F350">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H350" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G350&gt;0,G350&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B351">
-        <v>5876</v>
+        <v>5732</v>
       </c>
       <c r="C351" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D351" t="s">
         <v>111</v>
@@ -11085,25 +11085,25 @@
         <v>112</v>
       </c>
       <c r="F351">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G351">
         <v>0</v>
       </c>
       <c r="H351" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G351&gt;0,G351&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B352">
-        <v>5904</v>
+        <v>5906</v>
       </c>
       <c r="C352" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D352" t="s">
         <v>111</v>
@@ -11112,25 +11112,25 @@
         <v>112</v>
       </c>
       <c r="F352">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H352" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G352&gt;0,G352&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B353">
-        <v>5820</v>
+        <v>5876</v>
       </c>
       <c r="C353" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D353" t="s">
         <v>111</v>
@@ -11139,14 +11139,14 @@
         <v>112</v>
       </c>
       <c r="F353">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H353" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f>IF(AND(G353&gt;0,G353&lt;&gt;"NULL"),"YES","NO")</f>
+        <v>NO</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.15">
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="H354" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G354&gt;0,G354&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="H355" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G355&gt;0,G355&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -11226,7 +11226,7 @@
         <v>88</v>
       </c>
       <c r="H356" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G356&gt;0,G356&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
         <v>88</v>
       </c>
       <c r="H357" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G357&gt;0,G357&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
@@ -11280,11 +11280,14 @@
         <v>88</v>
       </c>
       <c r="H358" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AND(G358&gt;0,G358&lt;&gt;"NULL"),"YES","NO")</f>
         <v>NO</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H358">
+    <sortCondition descending="1" ref="H2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
